--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_7_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_7_26.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1647694.465918402</v>
+        <v>1744364.442402775</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095098</v>
+        <v>806345.8827095093</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>257.0285774905528</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -671,7 +673,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>51.11997078545532</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -704,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -722,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -832,13 +834,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,16 +864,16 @@
         <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.5106614771179</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>31.4089088059881</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,13 +901,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>121.0959809713491</v>
+        <v>147.6709863627792</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -944,10 +946,10 @@
         <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1060,10 +1062,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>86.11283245544973</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1075,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1105,10 +1107,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>29.33440141432771</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,13 +1141,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>13.15972490571568</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1190,10 +1192,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>265.7104570423479</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>128.4970238253391</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>47.14167849255889</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1421,7 +1423,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1430,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>74.75769145492404</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,19 +1581,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>150.2062474346973</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1619,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
@@ -1673,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>62.09581973348958</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1910,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2002,10 +2004,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>134.441538584933</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>145.6911677128805</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2053,7 +2055,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2065,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2096,7 +2098,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873199</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>44.17970120049777</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,19 +2295,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>282.2690124665664</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2415,7 +2417,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>103.364276303523</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
@@ -2521,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>172.0352812622631</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2615,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2710,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>95.85441263759756</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -2764,22 +2766,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>253.0207069265286</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>113.3095959457126</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>114.4746605491552</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3187,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,19 +3237,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>270.0697021486461</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>203.1977700471494</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3284,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292547</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396201</v>
@@ -3436,10 +3438,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3478,13 +3480,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>13.33835225137461</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3664,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>270.0697021486465</v>
+        <v>70.64743754240619</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3724,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396201</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>63.43124176171584</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>137.4419114249864</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3961,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3986,7 +3988,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>410.9217256534534</v>
@@ -3995,7 +3997,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4071,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734097636</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4135,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>81.17400253769641</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>181.1375494785999</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1366.188433646014</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C2" t="n">
-        <v>997.225916705602</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D2" t="n">
-        <v>997.225916705602</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E2" t="n">
-        <v>997.225916705602</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>586.2400119159945</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4331,10 +4333,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>2092.422847177208</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W2" t="n">
-        <v>1739.654191907093</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X2" t="n">
-        <v>1366.188433646014</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="Y2" t="n">
-        <v>1366.188433646014</v>
+        <v>1623.178216428726</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4512,28 @@
         <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>470.7225141620388</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>438.9963436509397</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1860.708406770827</v>
+        <v>1529.2861479534</v>
       </c>
       <c r="C5" t="n">
-        <v>1491.745889830415</v>
+        <v>1160.323631012988</v>
       </c>
       <c r="D5" t="n">
-        <v>1133.480191223665</v>
+        <v>1160.323631012988</v>
       </c>
       <c r="E5" t="n">
-        <v>747.6919386254203</v>
+        <v>774.5353784147437</v>
       </c>
       <c r="F5" t="n">
         <v>625.3727659270879</v>
@@ -4565,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733128</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W5" t="n">
-        <v>2247.308246834948</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X5" t="n">
-        <v>2247.308246834948</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="Y5" t="n">
-        <v>2247.308246834948</v>
+        <v>1915.885988017521</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>438.9553738610022</v>
+        <v>249.7161456655658</v>
       </c>
       <c r="C7" t="n">
-        <v>438.9553738610022</v>
+        <v>249.7161456655658</v>
       </c>
       <c r="D7" t="n">
-        <v>288.8387344486664</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E7" t="n">
-        <v>140.9256408662733</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4753,22 +4755,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.4982757071133</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610022</v>
+        <v>698.4982757071133</v>
       </c>
       <c r="V7" t="n">
-        <v>438.9553738610022</v>
+        <v>698.4982757071133</v>
       </c>
       <c r="W7" t="n">
-        <v>438.9553738610022</v>
+        <v>698.4982757071133</v>
       </c>
       <c r="X7" t="n">
-        <v>438.9553738610022</v>
+        <v>470.508724809096</v>
       </c>
       <c r="Y7" t="n">
-        <v>438.9553738610022</v>
+        <v>249.7161456655658</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1610.120910258947</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="C8" t="n">
-        <v>1241.158393318536</v>
+        <v>825.2129885066831</v>
       </c>
       <c r="D8" t="n">
-        <v>882.8926947117852</v>
+        <v>466.9472898999326</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>81.15903730168839</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
         <v>53.94298182036445</v>
@@ -4808,13 +4810,13 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2373.726000495839</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2373.726000495839</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X8" t="n">
-        <v>2000.260242234759</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y8" t="n">
-        <v>1610.120910258947</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="9">
@@ -4881,10 +4883,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
         <v>670.8219208598713</v>
@@ -4936,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>546.4805193761945</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C10" t="n">
-        <v>546.4805193761945</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>396.3638799638587</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>248.4507863814656</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>101.5608388835552</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4984,28 +4986,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>352.67413830922</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>352.67413830922</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>352.67413830922</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>352.67413830922</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>352.67413830922</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>352.67413830922</v>
       </c>
     </row>
     <row r="11">
@@ -5042,19 +5044,19 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L11" t="n">
-        <v>1482.778354750621</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M11" t="n">
-        <v>2461.32865758045</v>
+        <v>1923.729615463053</v>
       </c>
       <c r="N11" t="n">
-        <v>3441.080929807096</v>
+        <v>2903.481887689699</v>
       </c>
       <c r="O11" t="n">
-        <v>4075.973927750058</v>
+        <v>3783.446538019154</v>
       </c>
       <c r="P11" t="n">
         <v>4470.748294107237</v>
@@ -5069,10 +5071,10 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
         <v>3877.189942261304</v>
@@ -5094,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
         <v>205.0702204089889</v>
@@ -5124,7 +5126,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5136,22 +5138,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5160,10 +5162,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>95.56103444839442</v>
+        <v>1120.662598458018</v>
       </c>
       <c r="C13" t="n">
-        <v>95.56103444839442</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="D13" t="n">
-        <v>95.56103444839442</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E13" t="n">
-        <v>95.56103444839442</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F13" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5227,22 +5229,22 @@
         <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1453.060509258584</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U13" t="n">
-        <v>1163.957642384228</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="V13" t="n">
-        <v>909.2731541783409</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="W13" t="n">
-        <v>619.8559841413803</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="X13" t="n">
-        <v>391.866433243363</v>
+        <v>1523.103642431788</v>
       </c>
       <c r="Y13" t="n">
-        <v>171.0738540998329</v>
+        <v>1302.311063288258</v>
       </c>
     </row>
     <row r="14">
@@ -5255,16 +5257,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G14" t="n">
         <v>435.1415336001585</v>
@@ -5291,13 +5293,13 @@
         <v>3441.080929807096</v>
       </c>
       <c r="O14" t="n">
-        <v>3944.053400686433</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P14" t="n">
-        <v>4338.827767043611</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5331,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
         <v>205.0702204089889</v>
@@ -5355,10 +5357,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
         <v>794.2006632320242</v>
@@ -5373,22 +5375,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5397,10 +5399,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1036.495701195956</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C16" t="n">
-        <v>867.5595182680493</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D16" t="n">
-        <v>717.4428788557135</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E16" t="n">
-        <v>569.5297852733204</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5458,28 +5460,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1956.343466104704</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U16" t="n">
-        <v>1956.343466104704</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V16" t="n">
-        <v>1956.343466104704</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W16" t="n">
-        <v>1666.926296067743</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X16" t="n">
-        <v>1438.936745169726</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y16" t="n">
-        <v>1218.144166026196</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E17" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5513,52 +5515,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1237.706702364128</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M17" t="n">
-        <v>2216.257005193957</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N17" t="n">
-        <v>3196.009277420604</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="18">
@@ -5647,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>399.0634049978502</v>
+        <v>392.8404695303064</v>
       </c>
       <c r="C19" t="n">
-        <v>263.2638710736754</v>
+        <v>392.8404695303064</v>
       </c>
       <c r="D19" t="n">
-        <v>263.2638710736754</v>
+        <v>242.7238301179707</v>
       </c>
       <c r="E19" t="n">
-        <v>263.2638710736754</v>
+        <v>242.7238301179707</v>
       </c>
       <c r="F19" t="n">
-        <v>263.2638710736754</v>
+        <v>242.7238301179707</v>
       </c>
       <c r="G19" t="n">
         <v>95.56103444839442</v>
@@ -5701,22 +5703,22 @@
         <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258584</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U19" t="n">
-        <v>1163.957642384228</v>
+        <v>1385.724257814702</v>
       </c>
       <c r="V19" t="n">
-        <v>909.2731541783409</v>
+        <v>1131.039769608815</v>
       </c>
       <c r="W19" t="n">
-        <v>619.8559841413803</v>
+        <v>841.6225995718539</v>
       </c>
       <c r="X19" t="n">
-        <v>619.8559841413803</v>
+        <v>613.6330486738366</v>
       </c>
       <c r="Y19" t="n">
-        <v>399.0634049978502</v>
+        <v>392.8404695303064</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001592</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J20" t="n">
         <v>284.4401654074198</v>
@@ -5756,46 +5758,46 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1237.706702364128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M20" t="n">
-        <v>2216.257005193957</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N20" t="n">
-        <v>3196.009277420604</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O20" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>3154.542034367488</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>2980.089005086361</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>2831.15459542511</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>2671.917140419654</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>2525.382582446539</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>2389.019482279157</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>2298.517587917024</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839442</v>
+        <v>2279.510296318562</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>2373.187565809179</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>2611.451764789526</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>2978.149925102192</v>
       </c>
       <c r="M21" t="n">
-        <v>1241.47698845434</v>
+        <v>3425.426250324508</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008795</v>
+        <v>3898.949293878962</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.96131142685</v>
+        <v>4309.910573297017</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902953</v>
+        <v>4620.41016477312</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549552</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142068</v>
+        <v>4777.907369012236</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635548</v>
+        <v>4648.469482505716</v>
       </c>
       <c r="T21" t="n">
-        <v>2271.877220313403</v>
+        <v>4455.826482183571</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447819</v>
+        <v>4227.758635317987</v>
       </c>
       <c r="V21" t="n">
-        <v>1808.657265216076</v>
+        <v>3992.606527086244</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487874</v>
+        <v>3738.369170358043</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>3530.51767015251</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>3322.757371387556</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>623.0432015923082</v>
+        <v>3307.702102225118</v>
       </c>
       <c r="C22" t="n">
-        <v>454.1070186644013</v>
+        <v>3307.702102225118</v>
       </c>
       <c r="D22" t="n">
-        <v>409.4810578558177</v>
+        <v>3307.702102225118</v>
       </c>
       <c r="E22" t="n">
-        <v>409.4810578558177</v>
+        <v>3307.702102225118</v>
       </c>
       <c r="F22" t="n">
-        <v>409.4810578558177</v>
+        <v>3160.812154727208</v>
       </c>
       <c r="G22" t="n">
-        <v>241.7782212305366</v>
+        <v>3160.812154727208</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839442</v>
+        <v>3014.594967945065</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839442</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="J22" t="n">
-        <v>140.68366689533</v>
+        <v>2962.391923210347</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442064</v>
+        <v>3166.379106159223</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927024</v>
+        <v>3482.938904607719</v>
       </c>
       <c r="M22" t="n">
-        <v>1005.387693892251</v>
+        <v>3827.095950207268</v>
       </c>
       <c r="N22" t="n">
-        <v>1346.796070598116</v>
+        <v>4168.504326913133</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.12566951853</v>
+        <v>4467.833925833546</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.733169952189</v>
+        <v>4700.441426267205</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104704</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.65758193153</v>
+        <v>4586.365838246546</v>
       </c>
       <c r="T22" t="n">
-        <v>1542.890966501056</v>
+        <v>4364.599222816072</v>
       </c>
       <c r="U22" t="n">
-        <v>1542.890966501056</v>
+        <v>4075.496355941716</v>
       </c>
       <c r="V22" t="n">
-        <v>1542.890966501056</v>
+        <v>3820.811867735829</v>
       </c>
       <c r="W22" t="n">
-        <v>1253.473796464095</v>
+        <v>3535.691653123135</v>
       </c>
       <c r="X22" t="n">
-        <v>1025.484245566078</v>
+        <v>3307.702102225118</v>
       </c>
       <c r="Y22" t="n">
-        <v>804.6916664225479</v>
+        <v>3307.702102225118</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E23" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001578</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J23" t="n">
         <v>451.8458144277729</v>
@@ -6020,19 +6022,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="24">
@@ -6042,37 +6044,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K24" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6108,10 +6110,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6121,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>506.8067350374723</v>
+        <v>1120.662598458018</v>
       </c>
       <c r="C25" t="n">
-        <v>506.8067350374723</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="D25" t="n">
-        <v>506.8067350374723</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E25" t="n">
-        <v>506.8067350374723</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F25" t="n">
         <v>506.8067350374723</v>
@@ -6139,10 +6141,10 @@
         <v>339.1038984121913</v>
       </c>
       <c r="H25" t="n">
-        <v>192.8867116300491</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
@@ -6169,28 +6171,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1782.57045472868</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>1560.803839298207</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U25" t="n">
-        <v>1271.70097242385</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="V25" t="n">
-        <v>1017.016484217963</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="W25" t="n">
-        <v>727.5993141810025</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="X25" t="n">
-        <v>727.5993141810025</v>
+        <v>1225.070958360567</v>
       </c>
       <c r="Y25" t="n">
-        <v>506.8067350374723</v>
+        <v>1225.070958360567</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
         <v>2005.253839749764</v>
@@ -6209,19 +6211,19 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551618</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
         <v>284.4401654074198</v>
@@ -6230,46 +6232,46 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1237.706702364128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>2216.257005193956</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N26" t="n">
-        <v>3196.009277420603</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O26" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
         <v>189.2383039390118</v>
@@ -6336,7 +6338,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6345,10 +6347,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>653.6966825353827</v>
+        <v>754.9793597803102</v>
       </c>
       <c r="C28" t="n">
-        <v>653.6966825353827</v>
+        <v>586.0431768524033</v>
       </c>
       <c r="D28" t="n">
-        <v>653.6966825353827</v>
+        <v>435.9265374400676</v>
       </c>
       <c r="E28" t="n">
-        <v>653.6966825353827</v>
+        <v>435.9265374400676</v>
       </c>
       <c r="F28" t="n">
-        <v>506.8067350374723</v>
+        <v>435.9265374400676</v>
       </c>
       <c r="G28" t="n">
         <v>339.1038984121913</v>
       </c>
       <c r="H28" t="n">
-        <v>192.886711630049</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6412,22 +6414,22 @@
         <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>1453.060509258584</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U28" t="n">
-        <v>1163.957642384228</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="V28" t="n">
-        <v>909.2731541783409</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="W28" t="n">
-        <v>653.6966825353827</v>
+        <v>1385.409954652097</v>
       </c>
       <c r="X28" t="n">
-        <v>653.6966825353827</v>
+        <v>1157.42040375408</v>
       </c>
       <c r="Y28" t="n">
-        <v>653.6966825353827</v>
+        <v>936.62782461055</v>
       </c>
     </row>
     <row r="29">
@@ -6449,49 +6451,49 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551618</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>939.1634975427194</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L29" t="n">
-        <v>1803.682313196074</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M29" t="n">
-        <v>2593.249184644074</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N29" t="n">
-        <v>3573.001456870721</v>
+        <v>2762.028521254639</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
         <v>4208.252829604874</v>
@@ -6516,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
         <v>189.2383039390118</v>
@@ -6573,7 +6575,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6582,10 +6584,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.9597618327374</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="C31" t="n">
-        <v>784.0235789048305</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="D31" t="n">
-        <v>633.9069394924948</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="E31" t="n">
-        <v>485.9938459101016</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="F31" t="n">
-        <v>339.1038984121913</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="G31" t="n">
-        <v>339.1038984121913</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="H31" t="n">
-        <v>192.886711630049</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839441</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="J31" t="n">
-        <v>140.68366689533</v>
+        <v>2962.391923210348</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442064</v>
+        <v>3166.379106159224</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927024</v>
+        <v>3482.93890460772</v>
       </c>
       <c r="M31" t="n">
-        <v>1005.387693892251</v>
+        <v>3827.095950207269</v>
       </c>
       <c r="N31" t="n">
-        <v>1346.796070598116</v>
+        <v>4168.504326913134</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.12566951853</v>
+        <v>4467.833925833547</v>
       </c>
       <c r="P31" t="n">
-        <v>1878.733169952189</v>
+        <v>4700.441426267206</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104704</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>4688.221265177249</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.65758193153</v>
+        <v>4496.535381004075</v>
       </c>
       <c r="T31" t="n">
-        <v>1542.890966501056</v>
+        <v>4380.904410752403</v>
       </c>
       <c r="U31" t="n">
-        <v>1542.890966501056</v>
+        <v>4091.801543878047</v>
       </c>
       <c r="V31" t="n">
-        <v>1288.206478295169</v>
+        <v>3837.11705567216</v>
       </c>
       <c r="W31" t="n">
-        <v>1288.206478295169</v>
+        <v>3547.699885635199</v>
       </c>
       <c r="X31" t="n">
-        <v>1288.206478295169</v>
+        <v>3319.710334737182</v>
       </c>
       <c r="Y31" t="n">
-        <v>1067.413899151639</v>
+        <v>3098.917755593652</v>
       </c>
     </row>
     <row r="32">
@@ -6686,16 +6688,16 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J32" t="n">
         <v>284.4401654074198</v>
@@ -6716,19 +6718,19 @@
         <v>4075.973927750058</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
         <v>4208.252829604874</v>
@@ -6753,37 +6755,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6810,7 +6812,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6819,10 +6821,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2917.269290763412</v>
+        <v>1120.662598458018</v>
       </c>
       <c r="C34" t="n">
-        <v>2917.269290763412</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="D34" t="n">
-        <v>2917.269290763412</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E34" t="n">
-        <v>2917.269290763412</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F34" t="n">
-        <v>2917.269290763412</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G34" t="n">
-        <v>2917.269290763412</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H34" t="n">
-        <v>2917.269290763412</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I34" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J34" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M34" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N34" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P34" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>4586.365838246547</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T34" t="n">
-        <v>4364.599222816073</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U34" t="n">
-        <v>4091.801543878047</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="V34" t="n">
-        <v>3837.11705567216</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="W34" t="n">
-        <v>3547.699885635199</v>
+        <v>1751.093193329805</v>
       </c>
       <c r="X34" t="n">
-        <v>3319.710334737182</v>
+        <v>1523.103642431788</v>
       </c>
       <c r="Y34" t="n">
-        <v>3098.917755593652</v>
+        <v>1302.311063288258</v>
       </c>
     </row>
     <row r="35">
@@ -6911,52 +6913,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C35" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E35" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089252</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1803.682313196074</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2337.214217867999</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N35" t="n">
-        <v>3316.966490094645</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O35" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R35" t="n">
         <v>4778.05172241972</v>
@@ -6971,16 +6973,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W35" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="36">
@@ -7017,7 +7019,7 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
         <v>794.2006632320243</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1023.336921276364</v>
+        <v>709.4168978689405</v>
       </c>
       <c r="C37" t="n">
-        <v>854.4007383484569</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D37" t="n">
-        <v>704.2840989361212</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E37" t="n">
-        <v>556.371005353728</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F37" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G37" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H37" t="n">
         <v>95.56103444839441</v>
@@ -7126,19 +7128,19 @@
         <v>1956.343466104704</v>
       </c>
       <c r="U37" t="n">
-        <v>1667.240599230347</v>
+        <v>1883.949150983575</v>
       </c>
       <c r="V37" t="n">
-        <v>1667.240599230347</v>
+        <v>1629.264662777688</v>
       </c>
       <c r="W37" t="n">
-        <v>1653.767516148151</v>
+        <v>1339.847492740728</v>
       </c>
       <c r="X37" t="n">
-        <v>1425.777965250134</v>
+        <v>1111.85794184271</v>
       </c>
       <c r="Y37" t="n">
-        <v>1204.985386106604</v>
+        <v>891.0653626991802</v>
       </c>
     </row>
     <row r="38">
@@ -7148,52 +7150,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551617</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>618.2595390972663</v>
+        <v>1002.806306216375</v>
       </c>
       <c r="L38" t="n">
-        <v>1482.778354750621</v>
+        <v>1453.840519464783</v>
       </c>
       <c r="M38" t="n">
-        <v>2461.32865758045</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N38" t="n">
-        <v>3441.080929807096</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O38" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R38" t="n">
         <v>4778.05172241972</v>
@@ -7205,19 +7207,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="39">
@@ -7257,7 +7259,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>95.56103444839441</v>
+        <v>656.9233744498081</v>
       </c>
       <c r="C40" t="n">
-        <v>95.56103444839441</v>
+        <v>656.9233744498081</v>
       </c>
       <c r="D40" t="n">
-        <v>95.56103444839441</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="E40" t="n">
-        <v>95.56103444839441</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F40" t="n">
-        <v>95.56103444839441</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G40" t="n">
-        <v>95.56103444839441</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839441</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839441</v>
@@ -7354,28 +7356,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S40" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T40" t="n">
-        <v>1542.890966501056</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U40" t="n">
-        <v>1270.093287563029</v>
+        <v>1603.466076666426</v>
       </c>
       <c r="V40" t="n">
-        <v>1015.408799357142</v>
+        <v>1348.781588460539</v>
       </c>
       <c r="W40" t="n">
-        <v>725.9916293201816</v>
+        <v>1059.364418423578</v>
       </c>
       <c r="X40" t="n">
-        <v>498.0020784221642</v>
+        <v>1059.364418423578</v>
       </c>
       <c r="Y40" t="n">
-        <v>277.2094992786341</v>
+        <v>838.5718392800478</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
         <v>2005.253839749764</v>
@@ -7394,7 +7396,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
         <v>850.213983755162</v>
@@ -7445,16 +7447,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W41" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973195</v>
+        <v>3154.542034367488</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161925</v>
+        <v>2980.089005086361</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549413</v>
+        <v>2831.15459542511</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494858</v>
+        <v>2671.917140419654</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763708</v>
+        <v>2525.382582446539</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089889</v>
+        <v>2389.019482279157</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468564</v>
+        <v>2298.517587917024</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839441</v>
+        <v>2279.510296318562</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390118</v>
+        <v>2373.187565809179</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>2611.451764789526</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320242</v>
+        <v>2978.149925102192</v>
       </c>
       <c r="M42" t="n">
-        <v>1241.47698845434</v>
+        <v>3425.426250324508</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008795</v>
+        <v>3898.949293878963</v>
       </c>
       <c r="O42" t="n">
-        <v>2125.96131142685</v>
+        <v>4309.910573297017</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902953</v>
+        <v>4620.41016477312</v>
       </c>
       <c r="Q42" t="n">
-        <v>2594.102460549552</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="R42" t="n">
-        <v>2593.958107142068</v>
+        <v>4777.907369012236</v>
       </c>
       <c r="S42" t="n">
-        <v>2464.520220635548</v>
+        <v>4648.469482505716</v>
       </c>
       <c r="T42" t="n">
-        <v>2271.877220313403</v>
+        <v>4455.826482183571</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447818</v>
+        <v>4227.758635317987</v>
       </c>
       <c r="V42" t="n">
-        <v>1808.657265216076</v>
+        <v>3992.606527086244</v>
       </c>
       <c r="W42" t="n">
-        <v>1554.419908487874</v>
+        <v>3738.369170358043</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282341</v>
+        <v>3530.51767015251</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517387</v>
+        <v>3322.757371387556</v>
       </c>
     </row>
     <row r="43">
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>550.0071782166609</v>
+        <v>720.69789701373</v>
       </c>
       <c r="C43" t="n">
-        <v>550.0071782166609</v>
+        <v>551.7617140858231</v>
       </c>
       <c r="D43" t="n">
-        <v>550.0071782166609</v>
+        <v>487.6897527103525</v>
       </c>
       <c r="E43" t="n">
-        <v>402.0940846342678</v>
+        <v>339.7766591279594</v>
       </c>
       <c r="F43" t="n">
-        <v>263.2638710736754</v>
+        <v>192.886711630049</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839441</v>
+        <v>192.886711630049</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839441</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I43" t="n">
         <v>95.56103444839441</v>
@@ -7594,25 +7596,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T43" t="n">
-        <v>1542.890966501056</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U43" t="n">
-        <v>1542.890966501056</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V43" t="n">
-        <v>1288.206478295169</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W43" t="n">
-        <v>998.7893082582084</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X43" t="n">
-        <v>770.7997573601911</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="Y43" t="n">
-        <v>550.0071782166609</v>
+        <v>902.3463618439697</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7627,7 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D44" t="n">
         <v>1646.988141143013</v>
@@ -7634,43 +7636,43 @@
         <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277731</v>
       </c>
       <c r="K44" t="n">
-        <v>939.1634975427194</v>
+        <v>785.6651881176198</v>
       </c>
       <c r="L44" t="n">
-        <v>1803.682313196074</v>
+        <v>1339.447785386687</v>
       </c>
       <c r="M44" t="n">
-        <v>2593.249184644074</v>
+        <v>2317.998088216515</v>
       </c>
       <c r="N44" t="n">
-        <v>3573.001456870721</v>
+        <v>3297.750360443162</v>
       </c>
       <c r="O44" t="n">
-        <v>4075.973927750058</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
         <v>4667.761053946815</v>
@@ -7679,19 +7681,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7724,28 @@
         <v>114.5683260468564</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q45" t="n">
         <v>2594.102460549552</v>
@@ -7780,43 +7782,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>492.7083461157126</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C46" t="n">
-        <v>323.7721631878057</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D46" t="n">
-        <v>323.7721631878057</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E46" t="n">
-        <v>323.7721631878057</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F46" t="n">
-        <v>323.7721631878057</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G46" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K46" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L46" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M46" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N46" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O46" t="n">
         <v>1646.12566951853</v>
@@ -7828,28 +7830,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S46" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689059</v>
       </c>
       <c r="T46" t="n">
-        <v>1956.343466104704</v>
+        <v>1453.060509258585</v>
       </c>
       <c r="U46" t="n">
-        <v>1667.240599230347</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V46" t="n">
-        <v>1412.556111024461</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W46" t="n">
-        <v>1123.1389409875</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X46" t="n">
-        <v>895.1493900894825</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y46" t="n">
-        <v>674.3568109459524</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8067,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8301,7 +8303,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>422.2865794093296</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8468,7 +8470,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714828</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8529,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8690,22 +8692,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>295.4822118493984</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -8939,16 +8941,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>67.53663776704306</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9161,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>170.1140909277306</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9404,7 +9406,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>170.1140909277306</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9413,7 +9415,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9878,7 +9880,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>170.1140909277297</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9887,7 +9889,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10109,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>258.6211785616922</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>219.3344627260163</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10361,7 +10363,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>133.2530576400255</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10583,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>344.7025836476828</v>
       </c>
       <c r="O35" t="n">
-        <v>258.6211785616921</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>219.3344627260154</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>133.2530576400246</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11294,16 +11296,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>103.7862464855128</v>
       </c>
       <c r="M44" t="n">
-        <v>258.6211785616922</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11315,10 +11317,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>105.0742887270133</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,19 +23469,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>75.50340795433985</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>83.32522828944167</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23890,10 +23892,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>32.80528251369486</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>20.33464054614771</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -23941,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>104.4357718177146</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,19 +24183,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>4.253985870024565</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>76.46770387841434</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24409,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>17.73374406917884</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>70.17139562143066</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24652,22 +24654,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>33.50229141006244</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>66.52238423622468</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>105.074288727014</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25075,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,19 +25125,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>16.14213605696682</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>83.32522828944164</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25324,10 +25326,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -25366,13 +25368,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>214.5414662356956</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>273.1846460852164</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25552,7 +25554,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25561,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>16.14213605696636</v>
+        <v>215.5644006632067</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25612,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25783,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>85.18423125649652</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>7.979136597944802</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,13 +25836,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25849,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26023,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26035,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>84.85180572133181</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>105.0742887270129</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>897877.7408966769</v>
+        <v>897877.740896677</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>897877.740896677</v>
+        <v>897877.7408966769</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>897877.7408966769</v>
+        <v>897877.740896677</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>897877.740896677</v>
+        <v>897877.7408966769</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>897877.7408966769</v>
+        <v>897877.740896677</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>897877.7408966769</v>
+        <v>897877.740896677</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>897877.740896677</v>
+        <v>897877.7408966769</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>897877.740896677</v>
+        <v>897877.7408966769</v>
       </c>
     </row>
     <row r="16">
@@ -26311,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117844</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117848</v>
+        <v>533677.1504117844</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117848</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="E2" t="n">
         <v>516206.3229530783</v>
       </c>
       <c r="F2" t="n">
-        <v>516206.3229530783</v>
+        <v>516206.3229530784</v>
       </c>
       <c r="G2" t="n">
-        <v>516206.3229530783</v>
+        <v>516206.3229530781</v>
       </c>
       <c r="H2" t="n">
         <v>516206.3229530781</v>
@@ -26335,25 +26337,25 @@
         <v>516206.3229530781</v>
       </c>
       <c r="J2" t="n">
+        <v>516206.3229530784</v>
+      </c>
+      <c r="K2" t="n">
         <v>516206.3229530782</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>516206.3229530781</v>
-      </c>
-      <c r="L2" t="n">
-        <v>516206.3229530783</v>
       </c>
       <c r="M2" t="n">
         <v>516206.3229530781</v>
       </c>
       <c r="N2" t="n">
+        <v>516206.322953078</v>
+      </c>
+      <c r="O2" t="n">
         <v>516206.3229530783</v>
       </c>
-      <c r="O2" t="n">
-        <v>516206.3229530781</v>
-      </c>
       <c r="P2" t="n">
-        <v>516206.3229530781</v>
+        <v>516206.3229530782</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934067</v>
+        <v>727377.4139934068</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389447</v>
+        <v>129642.3148389448</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>3.026689228136092e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26430,34 +26432,34 @@
         <v>25090.72367499382</v>
       </c>
       <c r="G4" t="n">
+        <v>25090.72367499381</v>
+      </c>
+      <c r="H4" t="n">
+        <v>25090.72367499381</v>
+      </c>
+      <c r="I4" t="n">
+        <v>25090.7236749938</v>
+      </c>
+      <c r="J4" t="n">
         <v>25090.72367499382</v>
       </c>
-      <c r="H4" t="n">
+      <c r="K4" t="n">
         <v>25090.72367499382</v>
       </c>
-      <c r="I4" t="n">
+      <c r="L4" t="n">
         <v>25090.72367499381</v>
-      </c>
-      <c r="J4" t="n">
-        <v>25090.72367499381</v>
-      </c>
-      <c r="K4" t="n">
-        <v>25090.72367499381</v>
-      </c>
-      <c r="L4" t="n">
-        <v>25090.72367499382</v>
       </c>
       <c r="M4" t="n">
         <v>25090.7236749938</v>
       </c>
       <c r="N4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.7236749938</v>
       </c>
       <c r="O4" t="n">
         <v>25090.72367499381</v>
       </c>
       <c r="P4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.72367499379</v>
       </c>
     </row>
     <row r="5">
@@ -26485,19 +26487,19 @@
         <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="I5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="J5" t="n">
         <v>96383.51825371366</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>96383.51825371366</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>96383.51825371364</v>
-      </c>
-      <c r="K5" t="n">
-        <v>96383.51825371364</v>
-      </c>
-      <c r="L5" t="n">
-        <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
         <v>96383.51825371364</v>
@@ -26509,7 +26511,7 @@
         <v>96383.51825371364</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371367</v>
       </c>
     </row>
     <row r="6">
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-340214.3127939011</v>
+        <v>-340214.312793901</v>
       </c>
       <c r="C6" t="n">
-        <v>249753.5664206438</v>
+        <v>249753.5664206434</v>
       </c>
       <c r="D6" t="n">
-        <v>249753.5664206438</v>
+        <v>249753.5664206432</v>
       </c>
       <c r="E6" t="n">
-        <v>-332645.3329690359</v>
+        <v>-332645.332969036</v>
       </c>
       <c r="F6" t="n">
         <v>394732.0810243709</v>
       </c>
       <c r="G6" t="n">
-        <v>394732.0810243708</v>
+        <v>394732.0810243707</v>
       </c>
       <c r="H6" t="n">
         <v>394732.0810243707</v>
@@ -26543,25 +26545,25 @@
         <v>394732.0810243706</v>
       </c>
       <c r="J6" t="n">
-        <v>218308.8618317779</v>
+        <v>218308.8618317778</v>
       </c>
       <c r="K6" t="n">
         <v>394732.0810243707</v>
       </c>
       <c r="L6" t="n">
-        <v>394732.0810243708</v>
+        <v>394732.0810243707</v>
       </c>
       <c r="M6" t="n">
-        <v>265089.766185426</v>
+        <v>265089.7661854259</v>
       </c>
       <c r="N6" t="n">
+        <v>394732.0810243706</v>
+      </c>
+      <c r="O6" t="n">
         <v>394732.0810243709</v>
       </c>
-      <c r="O6" t="n">
-        <v>394732.0810243707</v>
-      </c>
       <c r="P6" t="n">
-        <v>394732.0810243707</v>
+        <v>394732.0810243704</v>
       </c>
     </row>
   </sheetData>
@@ -26777,7 +26779,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
     </row>
     <row r="4">
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762117</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>125.7052641729278</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27391,7 +27393,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>362.6641992353397</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27424,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -27442,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27552,13 +27554,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>6.771212764859854</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>187.1757445461067</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27619,13 +27621,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>285.7800647703623</v>
+        <v>259.2050593789322</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27664,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27676,10 +27678,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27780,10 +27782,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>59.30821556748151</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27795,7 +27797,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27825,10 +27827,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>195.7007040437566</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,13 +27861,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>393.7163208359958</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27898,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27910,10 +27912,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>62.04180142778699</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>51.33495635659818</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>120.168123766492</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,16 +28055,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -31513,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31859,7 +31861,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
@@ -32084,7 +32086,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N15" t="n">
         <v>609.6478166837925</v>
@@ -32321,7 +32323,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N18" t="n">
         <v>609.6478166837925</v>
@@ -32567,7 +32569,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002938</v>
       </c>
       <c r="Q21" t="n">
         <v>299.2156706987487</v>
@@ -33281,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33500,7 +33502,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L33" t="n">
         <v>508.9565619138796</v>
@@ -33737,10 +33739,10 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M36" t="n">
         <v>593.9283018233475</v>
@@ -33977,7 +33979,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M39" t="n">
         <v>593.9283018233475</v>
@@ -34220,7 +34222,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837928</v>
       </c>
       <c r="O42" t="n">
         <v>557.708647897025</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I44" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T44" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837912</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,43 +34520,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J46" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,7 +34789,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245897</v>
@@ -34796,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,7 +35023,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>486.0228424856235</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
@@ -35033,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35185,7 +35187,7 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
@@ -35249,13 +35251,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35264,7 +35266,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,22 +35412,22 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>694.2441980687703</v>
       </c>
       <c r="Q11" t="n">
         <v>250.7943048037195</v>
@@ -35507,7 +35509,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35659,16 +35661,16 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P14" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>318.3309425707625</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35732,7 +35734,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N15" t="n">
         <v>478.3061046004592</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>625.7042053200628</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,7 +35971,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N18" t="n">
         <v>478.3061046004592</v>
@@ -36124,7 +36126,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>625.7042053200628</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
         <v>988.4346493230593</v>
@@ -36133,7 +36135,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P20" t="n">
         <v>398.7619862193719</v>
@@ -36215,7 +36217,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859635</v>
       </c>
       <c r="Q21" t="n">
         <v>159.2338966127272</v>
@@ -36598,7 +36600,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>625.7042053200619</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
         <v>988.4346493230593</v>
@@ -36607,7 +36609,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P26" t="n">
         <v>398.7619862193719</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>797.542294391919</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>727.3874636142355</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36929,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37081,7 +37083,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>641.3060585282446</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193719</v>
@@ -37148,7 +37150,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L33" t="n">
         <v>370.4021821340054</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248956</v>
+        <v>897.0044190605943</v>
       </c>
       <c r="O35" t="n">
-        <v>766.6741794499112</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,10 +37387,10 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M36" t="n">
         <v>451.7942679013292</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>556.5257492814159</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>641.3060585282437</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,7 +37627,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M39" t="n">
         <v>451.7942679013292</v>
@@ -37868,7 +37870,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004595</v>
       </c>
       <c r="O42" t="n">
         <v>415.1124034525806</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407865</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427826</v>
+        <v>559.3763608778452</v>
       </c>
       <c r="M44" t="n">
-        <v>797.542294391919</v>
+        <v>988.4346493230595</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248959</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636244</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.306104600458</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306628</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_7_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_7_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1744364.442402775</v>
+        <v>1738642.830434889</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836237</v>
+        <v>6654055.582836235</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095093</v>
+        <v>806345.8827095096</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>257.0285774905528</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -676,10 +676,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -724,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>67.87096028541164</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>14.52687838733143</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.5106614771179</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>147.6709863627792</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -946,25 +946,25 @@
         <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>126.1512633158929</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>29.33440141432771</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1135,16 +1135,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>325.9393215830091</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>13.15972490571568</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481177</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229335</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>128.4970238253391</v>
+        <v>59.72683757586824</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>35.19569619650072</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>150.2062474346973</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534538</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T14" t="n">
         <v>203.9179701396201</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>74.75769145492404</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1824,13 +1824,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>14.89402554764689</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>145.6911677128805</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>182.1017944452676</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2098,7 +2098,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873199</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -2134,7 +2134,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2241,25 +2241,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>122.11685474901</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2301,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>282.2690124665664</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>103.364276303523</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>98.41084750542336</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983809</v>
@@ -2529,22 +2529,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2617,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2715,10 +2715,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>95.85441263759756</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,13 +2766,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>114.4746605491556</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2955,19 +2955,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>114.4746605491552</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>39.48322303634253</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3049,7 +3049,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3125,10 +3125,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3189,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,19 +3237,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>235.9955072668612</v>
       </c>
       <c r="W34" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292547</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>51.79563118827984</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,16 +3477,16 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>71.67037196991727</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3663,10 +3663,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>133.732847630763</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>70.64743754240619</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3900,16 +3900,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>63.43124176171584</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>202.4425172951286</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734097636</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004729</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
@@ -4191,7 +4191,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>181.1375494785999</v>
+        <v>270.0697021486465</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1363.553390680693</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="C2" t="n">
-        <v>1363.553390680693</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D2" t="n">
-        <v>1363.553390680693</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2366.086203674652</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2013.317548404538</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>2013.317548404538</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="Y2" t="n">
-        <v>1623.178216428726</v>
+        <v>1241.158393318536</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4421,13 +4421,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>544.5191867458693</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1529.2861479534</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C5" t="n">
-        <v>1160.323631012988</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D5" t="n">
-        <v>1160.323631012988</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E5" t="n">
-        <v>774.5353784147437</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733128</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2338.517395361984</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2084.755610000075</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>1753.692722656504</v>
       </c>
       <c r="W5" t="n">
-        <v>2289.351746278601</v>
+        <v>1753.692722656504</v>
       </c>
       <c r="X5" t="n">
-        <v>1915.885988017521</v>
+        <v>1753.692722656504</v>
       </c>
       <c r="Y5" t="n">
-        <v>1915.885988017521</v>
+        <v>1363.553390680693</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4646,43 +4646,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>249.7161456655658</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C7" t="n">
-        <v>249.7161456655658</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4755,22 +4755,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.4982757071133</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>698.4982757071133</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>698.4982757071133</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>698.4982757071133</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>470.508724809096</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>249.7161456655658</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1194.175505447095</v>
+        <v>808.0839286340165</v>
       </c>
       <c r="C8" t="n">
-        <v>825.2129885066831</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="D8" t="n">
-        <v>466.9472898999326</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E8" t="n">
-        <v>81.15903730168839</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>67.86638588177352</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791251</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2311.057514205144</v>
       </c>
       <c r="W8" t="n">
-        <v>2344.380435748108</v>
+        <v>1958.28885893503</v>
       </c>
       <c r="X8" t="n">
-        <v>1970.914677487028</v>
+        <v>1584.82310067395</v>
       </c>
       <c r="Y8" t="n">
-        <v>1580.775345511217</v>
+        <v>1194.683768698138</v>
       </c>
     </row>
     <row r="9">
@@ -4880,19 +4880,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615926</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.8791647482714</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477909</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594899</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.128984206434</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.128984206434</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.128984206434</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.128984206434</v>
       </c>
       <c r="T10" t="n">
-        <v>352.67413830922</v>
+        <v>728.128984206434</v>
       </c>
       <c r="U10" t="n">
-        <v>352.67413830922</v>
+        <v>728.128984206434</v>
       </c>
       <c r="V10" t="n">
-        <v>352.67413830922</v>
+        <v>728.128984206434</v>
       </c>
       <c r="W10" t="n">
-        <v>352.67413830922</v>
+        <v>728.128984206434</v>
       </c>
       <c r="X10" t="n">
-        <v>352.67413830922</v>
+        <v>728.128984206434</v>
       </c>
       <c r="Y10" t="n">
-        <v>352.67413830922</v>
+        <v>728.128984206434</v>
       </c>
     </row>
     <row r="11">
@@ -5047,19 +5047,19 @@
         <v>939.1634975427194</v>
       </c>
       <c r="L11" t="n">
-        <v>1390.197710791128</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M11" t="n">
-        <v>1923.729615463053</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N11" t="n">
-        <v>2903.481887689699</v>
+        <v>2985.817436667298</v>
       </c>
       <c r="O11" t="n">
-        <v>3783.446538019154</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q11" t="n">
         <v>4719.034655862919</v>
@@ -5071,16 +5071,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
         <v>3150.95552873011</v>
@@ -5096,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C12" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G12" t="n">
         <v>205.0702204089889</v>
@@ -5123,7 +5123,7 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L12" t="n">
         <v>794.2006632320243</v>
@@ -5138,22 +5138,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5162,10 +5162,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1120.662598458018</v>
+        <v>300.048425655595</v>
       </c>
       <c r="C13" t="n">
-        <v>951.7264155301116</v>
+        <v>131.1122427276881</v>
       </c>
       <c r="D13" t="n">
-        <v>801.6097761177758</v>
+        <v>131.1122427276881</v>
       </c>
       <c r="E13" t="n">
-        <v>653.6966825353827</v>
+        <v>131.1122427276881</v>
       </c>
       <c r="F13" t="n">
-        <v>506.8067350374723</v>
+        <v>131.1122427276881</v>
       </c>
       <c r="G13" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5223,28 +5223,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T13" t="n">
-        <v>1674.827124689058</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U13" t="n">
-        <v>1674.827124689058</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V13" t="n">
-        <v>1674.827124689058</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W13" t="n">
-        <v>1674.827124689058</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X13" t="n">
-        <v>1523.103642431788</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y13" t="n">
-        <v>1302.311063288258</v>
+        <v>481.6968904858347</v>
       </c>
     </row>
     <row r="14">
@@ -5257,16 +5257,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
         <v>435.1415336001585</v>
@@ -5287,10 +5287,10 @@
         <v>1482.778354750621</v>
       </c>
       <c r="M14" t="n">
-        <v>2461.32865758045</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N14" t="n">
-        <v>3441.080929807096</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O14" t="n">
         <v>4075.973927750058</v>
@@ -5305,19 +5305,19 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
         <v>3150.95552873011</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>95.56103444839442</v>
+        <v>728.5338801960603</v>
       </c>
       <c r="C16" t="n">
-        <v>95.56103444839442</v>
+        <v>559.5976972681534</v>
       </c>
       <c r="D16" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E16" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F16" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H16" t="n">
         <v>95.56103444839442</v>
@@ -5460,28 +5460,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U16" t="n">
-        <v>1163.957642384228</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V16" t="n">
-        <v>909.2731541783409</v>
+        <v>1238.743629376551</v>
       </c>
       <c r="W16" t="n">
-        <v>619.8559841413803</v>
+        <v>949.3264593395904</v>
       </c>
       <c r="X16" t="n">
-        <v>391.866433243363</v>
+        <v>949.3264593395904</v>
       </c>
       <c r="Y16" t="n">
-        <v>171.0738540998329</v>
+        <v>728.5338801960603</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L17" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M17" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N17" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="18">
@@ -5570,43 +5570,43 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M18" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O18" t="n">
         <v>2125.96131142685</v>
@@ -5615,7 +5615,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R18" t="n">
         <v>2593.958107142068</v>
@@ -5624,16 +5624,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V18" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X18" t="n">
         <v>1346.568408282342</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>392.8404695303064</v>
+        <v>825.859557377715</v>
       </c>
       <c r="C19" t="n">
-        <v>392.8404695303064</v>
+        <v>656.9233744498081</v>
       </c>
       <c r="D19" t="n">
-        <v>242.7238301179707</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="E19" t="n">
-        <v>242.7238301179707</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F19" t="n">
-        <v>242.7238301179707</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5697,28 +5697,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T19" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U19" t="n">
-        <v>1385.724257814702</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="V19" t="n">
-        <v>1131.039769608815</v>
+        <v>1701.658977898817</v>
       </c>
       <c r="W19" t="n">
-        <v>841.6225995718539</v>
+        <v>1412.241807861856</v>
       </c>
       <c r="X19" t="n">
-        <v>613.6330486738366</v>
+        <v>1228.300601351485</v>
       </c>
       <c r="Y19" t="n">
-        <v>392.8404695303064</v>
+        <v>1007.508022207955</v>
       </c>
     </row>
     <row r="20">
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551615</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.141533600158</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
         <v>284.4401654074198</v>
@@ -5770,16 +5770,16 @@
         <v>4075.973927750058</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
         <v>4461.783306331037</v>
@@ -5788,16 +5788,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>2980.089005086361</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>2525.382582446539</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>2389.019482279157</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>2298.517587917024</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
-        <v>2279.510296318562</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>2373.187565809179</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>2611.451764789526</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>2978.149925102192</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
-        <v>3425.426250324508</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>3898.949293878962</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O21" t="n">
-        <v>4309.910573297017</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>4620.41016477312</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
-        <v>4778.05172241972</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>4777.907369012236</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S21" t="n">
-        <v>4648.469482505716</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
-        <v>4455.826482183571</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
-        <v>3992.606527086244</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W21" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3307.702102225118</v>
+        <v>580.1131475839754</v>
       </c>
       <c r="C22" t="n">
-        <v>3307.702102225118</v>
+        <v>411.1769646560685</v>
       </c>
       <c r="D22" t="n">
-        <v>3307.702102225118</v>
+        <v>411.1769646560685</v>
       </c>
       <c r="E22" t="n">
-        <v>3307.702102225118</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F22" t="n">
-        <v>3160.812154727208</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G22" t="n">
-        <v>3160.812154727208</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>3014.594967945065</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N22" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>4586.365838246546</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T22" t="n">
-        <v>4364.599222816072</v>
+        <v>1641.307223599197</v>
       </c>
       <c r="U22" t="n">
-        <v>4075.496355941716</v>
+        <v>1352.20435672484</v>
       </c>
       <c r="V22" t="n">
-        <v>3820.811867735829</v>
+        <v>1097.519868518953</v>
       </c>
       <c r="W22" t="n">
-        <v>3535.691653123135</v>
+        <v>808.1026984819928</v>
       </c>
       <c r="X22" t="n">
-        <v>3307.702102225118</v>
+        <v>580.1131475839754</v>
       </c>
       <c r="Y22" t="n">
-        <v>3307.702102225118</v>
+        <v>580.1131475839754</v>
       </c>
     </row>
     <row r="23">
@@ -5965,52 +5965,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001578</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M23" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N23" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R23" t="n">
         <v>4778.05172241972</v>
@@ -6022,19 +6022,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6044,37 +6044,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6086,22 +6086,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1120.662598458018</v>
+        <v>439.1815555980841</v>
       </c>
       <c r="C25" t="n">
-        <v>951.7264155301116</v>
+        <v>439.1815555980841</v>
       </c>
       <c r="D25" t="n">
-        <v>801.6097761177758</v>
+        <v>439.1815555980841</v>
       </c>
       <c r="E25" t="n">
-        <v>653.6966825353827</v>
+        <v>439.1815555980841</v>
       </c>
       <c r="F25" t="n">
-        <v>506.8067350374723</v>
+        <v>292.2916081001737</v>
       </c>
       <c r="G25" t="n">
-        <v>339.1038984121913</v>
+        <v>292.2916081001737</v>
       </c>
       <c r="H25" t="n">
-        <v>192.886711630049</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
@@ -6177,22 +6177,22 @@
         <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>1453.060509258584</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U25" t="n">
-        <v>1453.060509258584</v>
+        <v>1385.724257814702</v>
       </c>
       <c r="V25" t="n">
-        <v>1453.060509258584</v>
+        <v>1131.039769608815</v>
       </c>
       <c r="W25" t="n">
-        <v>1453.060509258584</v>
+        <v>841.6225995718539</v>
       </c>
       <c r="X25" t="n">
-        <v>1225.070958360567</v>
+        <v>841.6225995718539</v>
       </c>
       <c r="Y25" t="n">
-        <v>1225.070958360567</v>
+        <v>620.8300204283238</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
         <v>2005.253839749764</v>
@@ -6211,7 +6211,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
         <v>850.213983755162</v>
@@ -6223,55 +6223,55 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>721.6132334414656</v>
       </c>
       <c r="L26" t="n">
-        <v>1482.778354750621</v>
+        <v>1172.647446689874</v>
       </c>
       <c r="M26" t="n">
-        <v>2461.32865758045</v>
+        <v>2151.197749519703</v>
       </c>
       <c r="N26" t="n">
-        <v>3441.080929807096</v>
+        <v>3130.95002174635</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750058</v>
+        <v>4010.914672075804</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432983</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W26" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
         <v>189.2383039390118</v>
@@ -6338,7 +6338,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6347,10 +6347,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>754.9793597803102</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C28" t="n">
-        <v>586.0431768524033</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D28" t="n">
-        <v>435.9265374400676</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E28" t="n">
-        <v>435.9265374400676</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F28" t="n">
-        <v>435.9265374400676</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G28" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H28" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6414,22 +6414,22 @@
         <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>1674.827124689058</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U28" t="n">
-        <v>1674.827124689058</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V28" t="n">
-        <v>1674.827124689058</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W28" t="n">
-        <v>1385.409954652097</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X28" t="n">
-        <v>1157.42040375408</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y28" t="n">
-        <v>936.62782461055</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="29">
@@ -6451,49 +6451,49 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>785.6651881176194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1236.699401366028</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M29" t="n">
-        <v>2215.249704195857</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N29" t="n">
-        <v>2762.028521254639</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
         <v>4208.252829604874</v>
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J30" t="n">
         <v>189.2383039390118</v>
@@ -6575,7 +6575,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6584,10 +6584,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2917.269290763412</v>
+        <v>707.5107908505465</v>
       </c>
       <c r="C31" t="n">
-        <v>2917.269290763412</v>
+        <v>707.5107908505465</v>
       </c>
       <c r="D31" t="n">
-        <v>2917.269290763412</v>
+        <v>557.3941514382108</v>
       </c>
       <c r="E31" t="n">
-        <v>2917.269290763412</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F31" t="n">
-        <v>2917.269290763412</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G31" t="n">
-        <v>2917.269290763412</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H31" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I31" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J31" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M31" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N31" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P31" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>4688.221265177249</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>4496.535381004075</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T31" t="n">
-        <v>4380.904410752403</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U31" t="n">
-        <v>4091.801543878047</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V31" t="n">
-        <v>3837.11705567216</v>
+        <v>1627.358555759294</v>
       </c>
       <c r="W31" t="n">
-        <v>3547.699885635199</v>
+        <v>1337.941385722334</v>
       </c>
       <c r="X31" t="n">
-        <v>3319.710334737182</v>
+        <v>1109.951834824316</v>
       </c>
       <c r="Y31" t="n">
-        <v>3098.917755593652</v>
+        <v>889.1592556807863</v>
       </c>
     </row>
     <row r="32">
@@ -6679,25 +6679,25 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
         <v>284.4401654074198</v>
@@ -6709,22 +6709,22 @@
         <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>2461.32865758045</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N32" t="n">
-        <v>3441.080929807096</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750058</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
         <v>4667.761053946815</v>
@@ -6733,19 +6733,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="33">
@@ -6755,37 +6755,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K33" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320239</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6794,19 +6794,19 @@
         <v>1715.000032008795</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1120.662598458018</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C34" t="n">
-        <v>951.7264155301116</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D34" t="n">
-        <v>801.6097761177758</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E34" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F34" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G34" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L34" t="n">
         <v>661.2306482927024</v>
@@ -6873,37 +6873,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P34" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S34" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T34" t="n">
-        <v>1956.343466104704</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>1956.343466104704</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V34" t="n">
-        <v>1956.343466104704</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W34" t="n">
-        <v>1751.093193329805</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X34" t="n">
-        <v>1523.103642431788</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y34" t="n">
-        <v>1302.311063288258</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551615</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
-        <v>435.141533600158</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089252</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839441</v>
@@ -6943,22 +6943,22 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1557.603359811481</v>
+        <v>1586.925993846823</v>
       </c>
       <c r="M35" t="n">
-        <v>2091.135264483406</v>
+        <v>2120.457898518747</v>
       </c>
       <c r="N35" t="n">
-        <v>2979.169639353394</v>
+        <v>2667.23671557753</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232731</v>
+        <v>3547.201365906984</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679677</v>
+        <v>4260.55645335393</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R35" t="n">
         <v>4778.05172241972</v>
@@ -7019,7 +7019,7 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L36" t="n">
         <v>794.2006632320243</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>709.4168978689405</v>
+        <v>560.358900722199</v>
       </c>
       <c r="C37" t="n">
-        <v>540.4807149410336</v>
+        <v>391.4227177942921</v>
       </c>
       <c r="D37" t="n">
-        <v>390.3640755286979</v>
+        <v>391.4227177942921</v>
       </c>
       <c r="E37" t="n">
-        <v>242.4509819463048</v>
+        <v>391.4227177942921</v>
       </c>
       <c r="F37" t="n">
-        <v>95.56103444839441</v>
+        <v>391.4227177942921</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839441</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839441</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I37" t="n">
         <v>95.56103444839441</v>
@@ -7125,22 +7125,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="T37" t="n">
-        <v>1956.343466104704</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U37" t="n">
-        <v>1883.949150983575</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V37" t="n">
-        <v>1629.264662777688</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W37" t="n">
-        <v>1339.847492740728</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="X37" t="n">
-        <v>1111.85794184271</v>
+        <v>962.7999446959689</v>
       </c>
       <c r="Y37" t="n">
-        <v>891.0653626991802</v>
+        <v>742.0073655524387</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C38" t="n">
         <v>2005.253839749764</v>
@@ -7159,7 +7159,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
         <v>850.213983755162</v>
@@ -7174,25 +7174,25 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277729</v>
+        <v>419.3276555045771</v>
       </c>
       <c r="K38" t="n">
-        <v>1002.806306216375</v>
+        <v>753.1470291944236</v>
       </c>
       <c r="L38" t="n">
-        <v>1453.840519464783</v>
+        <v>1617.665844847778</v>
       </c>
       <c r="M38" t="n">
-        <v>2432.390822294612</v>
+        <v>2151.197749519703</v>
       </c>
       <c r="N38" t="n">
-        <v>2979.169639353394</v>
+        <v>3130.95002174635</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.142110232731</v>
+        <v>4010.914672075804</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679677</v>
+        <v>4405.689038432983</v>
       </c>
       <c r="Q38" t="n">
         <v>4653.975400188665</v>
@@ -7210,16 +7210,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W38" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="39">
@@ -7229,43 +7229,43 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M39" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O39" t="n">
         <v>2125.96131142685</v>
@@ -7274,7 +7274,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R39" t="n">
         <v>2593.958107142068</v>
@@ -7283,22 +7283,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T39" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V39" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W39" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>656.9233744498081</v>
+        <v>713.5009252592428</v>
       </c>
       <c r="C40" t="n">
-        <v>656.9233744498081</v>
+        <v>544.5647423313359</v>
       </c>
       <c r="D40" t="n">
-        <v>506.8067350374723</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E40" t="n">
-        <v>506.8067350374723</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F40" t="n">
-        <v>506.8067350374723</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G40" t="n">
-        <v>339.1038984121913</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H40" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839441</v>
@@ -7356,28 +7356,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T40" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U40" t="n">
-        <v>1603.466076666426</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V40" t="n">
-        <v>1348.781588460539</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W40" t="n">
-        <v>1059.364418423578</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X40" t="n">
-        <v>1059.364418423578</v>
+        <v>895.1493900894825</v>
       </c>
       <c r="Y40" t="n">
-        <v>838.5718392800478</v>
+        <v>895.1493900894825</v>
       </c>
     </row>
     <row r="41">
@@ -7390,25 +7390,25 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
         <v>284.4401654074198</v>
@@ -7429,13 +7429,13 @@
         <v>4075.973927750058</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
         <v>4667.761053946815</v>
@@ -7444,19 +7444,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C42" t="n">
-        <v>2980.089005086361</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D42" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E42" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F42" t="n">
-        <v>2525.382582446539</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G42" t="n">
-        <v>2389.019482279157</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H42" t="n">
-        <v>2298.517587917024</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I42" t="n">
-        <v>2279.510296318562</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>2373.187565809179</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K42" t="n">
-        <v>2611.451764789526</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L42" t="n">
-        <v>2978.149925102192</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M42" t="n">
-        <v>3425.426250324508</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>3898.949293878963</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O42" t="n">
-        <v>4309.910573297017</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P42" t="n">
-        <v>4620.41016477312</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
-        <v>4778.05172241972</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
-        <v>4777.907369012236</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S42" t="n">
-        <v>4648.469482505716</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T42" t="n">
-        <v>4455.826482183571</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V42" t="n">
-        <v>3992.606527086244</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W42" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y42" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>720.69789701373</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C43" t="n">
-        <v>551.7617140858231</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D43" t="n">
-        <v>487.6897527103525</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E43" t="n">
-        <v>339.7766591279594</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F43" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G43" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H43" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
@@ -7596,25 +7596,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T43" t="n">
-        <v>1956.343466104704</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U43" t="n">
-        <v>1667.240599230347</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V43" t="n">
-        <v>1412.556111024461</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W43" t="n">
-        <v>1123.1389409875</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X43" t="n">
-        <v>1123.1389409875</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y43" t="n">
-        <v>902.3463618439697</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277731</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>785.6651881176198</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L44" t="n">
-        <v>1339.447785386687</v>
+        <v>1453.840519464784</v>
       </c>
       <c r="M44" t="n">
-        <v>2317.998088216515</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N44" t="n">
-        <v>3297.750360443162</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O44" t="n">
-        <v>3800.7228313225</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P44" t="n">
         <v>4195.497197679678</v>
@@ -7675,25 +7675,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="45">
@@ -7703,46 +7703,46 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G45" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
         <v>2436.460902902952</v>
@@ -7751,10 +7751,10 @@
         <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T45" t="n">
         <v>2271.877220313403</v>
@@ -7809,16 +7809,16 @@
         <v>140.68366689533</v>
       </c>
       <c r="K46" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L46" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M46" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N46" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O46" t="n">
         <v>1646.12566951853</v>
@@ -7830,13 +7830,13 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1674.827124689059</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T46" t="n">
-        <v>1453.060509258585</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U46" t="n">
         <v>1270.093287563029</v>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747169</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8470,7 +8470,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714828</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8537,13 +8537,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451766</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8695,22 +8695,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>102.8529310510271</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>295.4822118493984</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8935,13 +8935,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>201.9664098701126</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>344.7025836476838</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9415,7 +9415,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>133.2530576400246</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>344.7025836476829</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9877,10 +9877,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>104.3976710547467</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9889,7 +9889,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>170.1140909277297</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>219.3344627260163</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10363,7 +10363,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>133.2530576400246</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10591,16 +10591,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>29.61882225792044</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>344.7025836476828</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10822,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>136.2499899971285</v>
       </c>
       <c r="K38" t="n">
-        <v>219.3344627260154</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -11074,7 +11074,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>133.2530576400246</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11302,19 +11302,19 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>103.7862464855128</v>
+        <v>219.3344627260163</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>130.8301120625275</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>75.50340795433985</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>105.0742887270133</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,10 +23667,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23712,13 +23712,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>237.2436177761811</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>20.33464054614771</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>43.60786094376954</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>97.43209452715917</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>4.253985870024565</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>76.46770387841434</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>46.34416740889742</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24417,22 +24417,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24603,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>70.17139562143066</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,13 +24654,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>105.0742887270136</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24843,19 +24843,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>105.074288727014</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>212.6544202874855</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,22 +25122,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>16.14213605696679</v>
       </c>
       <c r="W34" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>114.2301770707484</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,16 +25365,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>214.5414662356956</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25551,10 +25551,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>14.88262538744931</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>215.5644006632067</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25788,16 +25788,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>85.18423125649652</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
@@ -25806,7 +25806,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,10 +25836,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
     </row>
     <row r="44">
@@ -26043,7 +26043,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983806</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>105.0742887270129</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>897877.740896677</v>
+        <v>897877.7408966769</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>897877.7408966769</v>
+        <v>897877.740896677</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>897877.740896677</v>
+        <v>897877.7408966768</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>897877.740896677</v>
+        <v>897877.7408966769</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>897877.7408966769</v>
+        <v>897877.740896677</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>897877.740896677</v>
+        <v>897877.7408966769</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>897877.7408966769</v>
+        <v>897877.740896677</v>
       </c>
     </row>
     <row r="14">
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117841</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.1504117845</v>
       </c>
       <c r="E2" t="n">
-        <v>516206.3229530783</v>
+        <v>516206.322953078</v>
       </c>
       <c r="F2" t="n">
-        <v>516206.3229530784</v>
+        <v>516206.3229530781</v>
       </c>
       <c r="G2" t="n">
         <v>516206.3229530781</v>
@@ -26334,10 +26334,10 @@
         <v>516206.3229530781</v>
       </c>
       <c r="I2" t="n">
+        <v>516206.3229530783</v>
+      </c>
+      <c r="J2" t="n">
         <v>516206.3229530781</v>
-      </c>
-      <c r="J2" t="n">
-        <v>516206.3229530784</v>
       </c>
       <c r="K2" t="n">
         <v>516206.3229530782</v>
@@ -26346,16 +26346,16 @@
         <v>516206.3229530781</v>
       </c>
       <c r="M2" t="n">
+        <v>516206.322953078</v>
+      </c>
+      <c r="N2" t="n">
+        <v>516206.3229530783</v>
+      </c>
+      <c r="O2" t="n">
         <v>516206.3229530781</v>
       </c>
-      <c r="N2" t="n">
-        <v>516206.322953078</v>
-      </c>
-      <c r="O2" t="n">
-        <v>516206.3229530783</v>
-      </c>
       <c r="P2" t="n">
-        <v>516206.3229530782</v>
+        <v>516206.3229530781</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934068</v>
+        <v>727377.413993407</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389448</v>
+        <v>129642.3148389449</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>3.026689228136092e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26423,7 +26423,7 @@
         <v>201064.5059277315</v>
       </c>
       <c r="D4" t="n">
-        <v>201064.5059277315</v>
+        <v>201064.5059277316</v>
       </c>
       <c r="E4" t="n">
         <v>25090.72367499382</v>
@@ -26432,34 +26432,34 @@
         <v>25090.72367499382</v>
       </c>
       <c r="G4" t="n">
+        <v>25090.72367499382</v>
+      </c>
+      <c r="H4" t="n">
+        <v>25090.72367499382</v>
+      </c>
+      <c r="I4" t="n">
         <v>25090.72367499381</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
+        <v>25090.7236749938</v>
+      </c>
+      <c r="K4" t="n">
         <v>25090.72367499381</v>
       </c>
-      <c r="I4" t="n">
-        <v>25090.7236749938</v>
-      </c>
-      <c r="J4" t="n">
-        <v>25090.72367499382</v>
-      </c>
-      <c r="K4" t="n">
-        <v>25090.72367499382</v>
-      </c>
       <c r="L4" t="n">
+        <v>25090.72367499384</v>
+      </c>
+      <c r="M4" t="n">
         <v>25090.72367499381</v>
-      </c>
-      <c r="M4" t="n">
-        <v>25090.7236749938</v>
       </c>
       <c r="N4" t="n">
         <v>25090.7236749938</v>
       </c>
       <c r="O4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="P4" t="n">
-        <v>25090.72367499379</v>
+        <v>25090.72367499382</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340944</v>
       </c>
       <c r="E5" t="n">
         <v>96383.51825371366</v>
@@ -26487,16 +26487,16 @@
         <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="I5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="J5" t="n">
         <v>96383.51825371364</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>96383.51825371364</v>
-      </c>
-      <c r="J5" t="n">
-        <v>96383.51825371366</v>
-      </c>
-      <c r="K5" t="n">
-        <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
         <v>96383.51825371364</v>
@@ -26508,10 +26508,10 @@
         <v>96383.51825371364</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371366</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-340214.312793901</v>
+        <v>-340214.3127939013</v>
       </c>
       <c r="C6" t="n">
-        <v>249753.5664206434</v>
+        <v>249753.5664206433</v>
       </c>
       <c r="D6" t="n">
-        <v>249753.5664206432</v>
+        <v>249753.5664206435</v>
       </c>
       <c r="E6" t="n">
-        <v>-332645.332969036</v>
+        <v>-333317.2878712944</v>
       </c>
       <c r="F6" t="n">
-        <v>394732.0810243709</v>
+        <v>394060.1261221127</v>
       </c>
       <c r="G6" t="n">
-        <v>394732.0810243707</v>
+        <v>394060.1261221127</v>
       </c>
       <c r="H6" t="n">
-        <v>394732.0810243707</v>
+        <v>394060.1261221126</v>
       </c>
       <c r="I6" t="n">
-        <v>394732.0810243706</v>
+        <v>394060.1261221129</v>
       </c>
       <c r="J6" t="n">
-        <v>218308.8618317778</v>
+        <v>217636.9069295198</v>
       </c>
       <c r="K6" t="n">
-        <v>394732.0810243707</v>
+        <v>394060.1261221128</v>
       </c>
       <c r="L6" t="n">
-        <v>394732.0810243707</v>
+        <v>394060.1261221129</v>
       </c>
       <c r="M6" t="n">
-        <v>265089.7661854259</v>
+        <v>264417.8112831677</v>
       </c>
       <c r="N6" t="n">
-        <v>394732.0810243706</v>
+        <v>394060.1261221129</v>
       </c>
       <c r="O6" t="n">
-        <v>394732.0810243709</v>
+        <v>394060.1261221127</v>
       </c>
       <c r="P6" t="n">
-        <v>394732.0810243704</v>
+        <v>394060.1261221127</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170864</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26779,7 +26779,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762117</v>
+        <v>712.0330363762118</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26992,7 +26992,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503749</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503749</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>125.7052641729278</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>301.8601403930574</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>165.3051017946059</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,19 +27581,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>6.771212764859854</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>259.2050593789322</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>90.29705704176487</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27827,7 +27827,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>195.7007040437566</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27855,16 +27855,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>39.33357018799848</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>393.7163208359958</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27912,7 +27912,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>51.33495635659818</v>
+        <v>120.1051426060691</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853703</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,16 +28055,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.12274995491434</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31521,40 +31521,40 @@
         <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554463</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630668</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405366</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338302</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119864</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633791</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.6043567772738</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473549</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141104</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188909</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890687</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396472</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736699</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479576</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639064</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034978</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372663</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619149</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078606</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644438</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492003</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813575</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302234</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175838</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383795</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678004</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701162</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197222</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315608</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31840,7 +31840,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
@@ -32086,7 +32086,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
         <v>609.6478166837925</v>
@@ -32095,7 +32095,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
@@ -32323,7 +32323,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
         <v>609.6478166837925</v>
@@ -32569,10 +32569,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002938</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -33043,10 +33043,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33496,40 +33496,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33569,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33584,16 +33584,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33602,16 +33602,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33739,10 +33739,10 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
         <v>593.9283018233475</v>
@@ -33979,7 +33979,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
         <v>593.9283018233475</v>
@@ -34222,7 +34222,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
         <v>557.708647897025</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837912</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,43 +34520,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,25 +35175,25 @@
         <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.563508753045</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116796</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,19 +35251,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770686</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355132</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245897</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>173.811094813734</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713948</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O10" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873144</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35415,22 +35415,22 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248956</v>
+        <v>655.1547664639386</v>
       </c>
       <c r="O11" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P11" t="n">
-        <v>694.2441980687703</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
         <v>59.61319854222478</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
@@ -35655,13 +35655,13 @@
         <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>740.8875257003393</v>
       </c>
       <c r="N14" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
         <v>398.7619862193719</v>
@@ -35734,7 +35734,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
         <v>478.3061046004592</v>
@@ -35743,7 +35743,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>852.7555845359029</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35971,7 +35971,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
         <v>478.3061046004592</v>
@@ -36135,7 +36135,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>641.3060585282437</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P20" t="n">
         <v>398.7619862193719</v>
@@ -36217,10 +36217,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859635</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>852.755584535902</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36597,10 +36597,10 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>441.5889576101472</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
         <v>988.4346493230593</v>
@@ -36609,7 +36609,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
         <v>398.7619862193719</v>
@@ -36618,7 +36618,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36691,10 +36691,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>625.7042053200619</v>
       </c>
       <c r="M29" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>727.3874636142355</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O32" t="n">
-        <v>641.3060585282437</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L34" t="n">
         <v>319.7573721701981</v>
@@ -37241,13 +37241,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P34" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37311,16 +37311,16 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>485.2089366502526</v>
       </c>
       <c r="M35" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>897.0044190605943</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
         <v>720.5606943908545</v>
@@ -37329,7 +37329,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,10 +37387,10 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
         <v>451.7942679013292</v>
@@ -37542,28 +37542,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>327.0369909658411</v>
       </c>
       <c r="K38" t="n">
-        <v>556.5257492814159</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
         <v>125.3296184152072</v>
@@ -37627,7 +37627,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
         <v>451.7942679013292</v>
@@ -37794,7 +37794,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>641.3060585282437</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P41" t="n">
         <v>398.7619862193719</v>
@@ -37870,7 +37870,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
         <v>415.1124034525806</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407865</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>559.3763608778452</v>
+        <v>674.9245771183485</v>
       </c>
       <c r="M44" t="n">
-        <v>988.4346493230595</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248959</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882195</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193721</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636244</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152073</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597719</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.306104600458</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306628</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789371</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_7_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_7_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1738642.830434889</v>
+        <v>1742048.32155934</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836235</v>
+        <v>6654055.582836234</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095096</v>
+        <v>806345.8827095095</v>
       </c>
     </row>
     <row r="9">
@@ -673,7 +673,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>363.1481971360267</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -724,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>67.87096028541164</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14.52687838733143</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -831,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -907,13 +907,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>11.98934863366319</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>126.1512633158929</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -958,10 +958,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>325.9393215830091</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481177</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>126.1512633158929</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229335</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586824</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1305,10 +1305,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>70.80276983270103</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1542,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>35.19569619650072</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>130.7976098817785</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
         <v>203.9179701396201</v>
@@ -1767,10 +1767,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1824,16 +1824,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>14.89402554764689</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>111.9187566128689</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -2004,10 +2004,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>182.1017944452676</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2134,7 +2134,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>122.11685474901</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>181.1375494785995</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2487,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>98.41084750542336</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2538,10 +2538,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>216.5256748771942</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2766,13 +2766,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>114.4746605491556</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>100.0025634447716</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2955,19 +2955,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486465</v>
       </c>
       <c r="V31" t="n">
-        <v>39.48322303634253</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3049,7 +3049,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3125,10 +3125,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>18.26879610203984</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3246,7 +3246,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>235.9955072668612</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3274,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3362,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>51.79563118827984</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>203.4068132192022</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
@@ -3486,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3523,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3599,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492315</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>133.732847630763</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>83.04950846481763</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>202.4425172951286</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4140,10 +4140,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>123.6357395020773</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>270.0697021486465</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1241.158393318536</v>
+        <v>1190.010945960184</v>
       </c>
       <c r="C2" t="n">
-        <v>1241.158393318536</v>
+        <v>1190.010945960184</v>
       </c>
       <c r="D2" t="n">
-        <v>882.8926947117852</v>
+        <v>831.7452473534333</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>831.7452473534333</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>420.7593425638258</v>
       </c>
       <c r="G2" t="n">
         <v>53.94298182036445</v>
@@ -4330,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4363,19 +4363,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X2" t="n">
-        <v>1241.158393318536</v>
+        <v>1190.010945960184</v>
       </c>
       <c r="Y2" t="n">
-        <v>1241.158393318536</v>
+        <v>1190.010945960184</v>
       </c>
     </row>
     <row r="3">
@@ -4400,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4415,25 +4415,25 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>713.4553696737762</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>544.5191867458693</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D4" t="n">
-        <v>394.4025473335336</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>246.4894537511405</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>99.59950625323012</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1363.553390680693</v>
+        <v>597.2403795762991</v>
       </c>
       <c r="C5" t="n">
-        <v>1363.553390680693</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="D5" t="n">
-        <v>1363.553390680693</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2685.038637852906</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2685.038637852906</v>
       </c>
       <c r="T5" t="n">
-        <v>2338.517395361984</v>
+        <v>2685.038637852906</v>
       </c>
       <c r="U5" t="n">
-        <v>2084.755610000075</v>
+        <v>2431.276852490997</v>
       </c>
       <c r="V5" t="n">
-        <v>1753.692722656504</v>
+        <v>2100.213965147427</v>
       </c>
       <c r="W5" t="n">
-        <v>1753.692722656504</v>
+        <v>1747.445309877312</v>
       </c>
       <c r="X5" t="n">
-        <v>1753.692722656504</v>
+        <v>1373.979551616233</v>
       </c>
       <c r="Y5" t="n">
-        <v>1363.553390680693</v>
+        <v>983.8402196404209</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4667,22 +4667,22 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>667.7988452409105</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>498.8626623130036</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>808.0839286340165</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C8" t="n">
-        <v>478.8522906713811</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D8" t="n">
-        <v>478.8522906713811</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177352</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036443</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036443</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4810,7 +4810,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791251</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548715</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548715</v>
+        <v>2338.517395361984</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548715</v>
+        <v>2084.755610000075</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205144</v>
+        <v>1753.692722656504</v>
       </c>
       <c r="W8" t="n">
-        <v>1958.28885893503</v>
+        <v>1753.692722656504</v>
       </c>
       <c r="X8" t="n">
-        <v>1584.82310067395</v>
+        <v>1753.692722656504</v>
       </c>
       <c r="Y8" t="n">
-        <v>1194.683768698138</v>
+        <v>1363.553390680693</v>
       </c>
     </row>
     <row r="9">
@@ -4880,19 +4880,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204942</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615926</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572644</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315295</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>430.0992512117053</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036443</v>
+        <v>283.209303713795</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036443</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477909</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658208</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594899</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.128984206434</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.128984206434</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.128984206434</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.128984206434</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.128984206434</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.128984206434</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>728.128984206434</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>728.128984206434</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>728.128984206434</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.128984206434</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C11" t="n">
         <v>2005.253839749764</v>
@@ -5026,7 +5026,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
         <v>850.213983755162</v>
@@ -5038,55 +5038,55 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J11" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L11" t="n">
-        <v>1803.682313196074</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M11" t="n">
-        <v>2337.214217867999</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N11" t="n">
-        <v>2985.817436667298</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O11" t="n">
-        <v>3865.782086996753</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P11" t="n">
-        <v>4260.556453353931</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="12">
@@ -5096,43 +5096,43 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K12" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M12" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O12" t="n">
         <v>2125.96131142685</v>
@@ -5141,7 +5141,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R12" t="n">
         <v>2593.958107142068</v>
@@ -5150,16 +5150,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V12" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X12" t="n">
         <v>1346.568408282342</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>300.048425655595</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="C13" t="n">
-        <v>131.1122427276881</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="D13" t="n">
-        <v>131.1122427276881</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="E13" t="n">
-        <v>131.1122427276881</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="F13" t="n">
-        <v>131.1122427276881</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J13" t="n">
         <v>140.68366689533</v>
@@ -5226,25 +5226,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1764.65758193153</v>
+        <v>1824.224668244321</v>
       </c>
       <c r="T13" t="n">
-        <v>1542.890966501056</v>
+        <v>1824.224668244321</v>
       </c>
       <c r="U13" t="n">
-        <v>1253.788099626699</v>
+        <v>1535.121801369965</v>
       </c>
       <c r="V13" t="n">
-        <v>999.1036114208126</v>
+        <v>1280.437313164078</v>
       </c>
       <c r="W13" t="n">
-        <v>709.6864413838521</v>
+        <v>991.0201431271173</v>
       </c>
       <c r="X13" t="n">
-        <v>481.6968904858347</v>
+        <v>763.0305922291</v>
       </c>
       <c r="Y13" t="n">
-        <v>481.6968904858347</v>
+        <v>542.2380130855698</v>
       </c>
     </row>
     <row r="14">
@@ -5257,19 +5257,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
@@ -5287,10 +5287,10 @@
         <v>1482.778354750621</v>
       </c>
       <c r="M14" t="n">
-        <v>2216.257005193957</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N14" t="n">
-        <v>3196.009277420604</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O14" t="n">
         <v>4075.973927750058</v>
@@ -5305,19 +5305,19 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
         <v>3150.95552873011</v>
@@ -5360,10 +5360,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>728.5338801960603</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="C16" t="n">
-        <v>559.5976972681534</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="D16" t="n">
-        <v>409.4810578558177</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="E16" t="n">
-        <v>409.4810578558177</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F16" t="n">
-        <v>409.4810578558177</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G16" t="n">
-        <v>241.7782212305366</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5460,28 +5460,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U16" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V16" t="n">
-        <v>1238.743629376551</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W16" t="n">
-        <v>949.3264593395904</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X16" t="n">
-        <v>949.3264593395904</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="Y16" t="n">
-        <v>728.5338801960603</v>
+        <v>506.8067350374723</v>
       </c>
     </row>
     <row r="17">
@@ -5497,19 +5497,19 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
@@ -5518,19 +5518,19 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972663</v>
+        <v>913.1101661838561</v>
       </c>
       <c r="L17" t="n">
-        <v>1482.778354750621</v>
+        <v>1364.144379432265</v>
       </c>
       <c r="M17" t="n">
-        <v>2461.32865758045</v>
+        <v>1897.67628410419</v>
       </c>
       <c r="N17" t="n">
-        <v>3441.080929807096</v>
+        <v>2877.428556330836</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750058</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P17" t="n">
         <v>4470.748294107237</v>
@@ -5570,43 +5570,43 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193594</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M18" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
         <v>2125.96131142685</v>
@@ -5615,7 +5615,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
         <v>2593.958107142068</v>
@@ -5624,16 +5624,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V18" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
         <v>1346.568408282342</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>825.859557377715</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C19" t="n">
-        <v>656.9233744498081</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5700,25 +5700,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1956.343466104704</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T19" t="n">
-        <v>1956.343466104704</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U19" t="n">
-        <v>1956.343466104704</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V19" t="n">
-        <v>1701.658977898817</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W19" t="n">
-        <v>1412.241807861856</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X19" t="n">
-        <v>1228.300601351485</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y19" t="n">
-        <v>1007.508022207955</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="20">
@@ -5731,22 +5731,22 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
@@ -5782,16 +5782,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.1131475839754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C22" t="n">
-        <v>411.1769646560685</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>411.1769646560685</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
         <v>95.56103444839442</v>
@@ -5934,28 +5934,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>1641.307223599197</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>1352.20435672484</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V22" t="n">
-        <v>1097.519868518953</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W22" t="n">
-        <v>808.1026984819928</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X22" t="n">
-        <v>580.1131475839754</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y22" t="n">
-        <v>580.1131475839754</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E23" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J23" t="n">
         <v>284.4401654074198</v>
@@ -6022,19 +6022,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="24">
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C24" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J24" t="n">
         <v>189.2383039390118</v>
@@ -6086,16 +6086,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>439.1815555980841</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="C25" t="n">
-        <v>439.1815555980841</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="D25" t="n">
-        <v>439.1815555980841</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="E25" t="n">
-        <v>439.1815555980841</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="F25" t="n">
-        <v>292.2916081001737</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G25" t="n">
-        <v>292.2916081001737</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H25" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
@@ -6177,22 +6177,22 @@
         <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>1674.827124689058</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U25" t="n">
-        <v>1385.724257814702</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V25" t="n">
-        <v>1131.039769608815</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W25" t="n">
-        <v>841.6225995718539</v>
+        <v>690.5603512720841</v>
       </c>
       <c r="X25" t="n">
-        <v>841.6225995718539</v>
+        <v>462.5708003740667</v>
       </c>
       <c r="Y25" t="n">
-        <v>620.8300204283238</v>
+        <v>241.7782212305366</v>
       </c>
     </row>
     <row r="26">
@@ -6214,10 +6214,10 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6226,25 +6226,25 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>721.6132334414656</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L26" t="n">
-        <v>1172.647446689874</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M26" t="n">
-        <v>2151.197749519703</v>
+        <v>2504.619866888352</v>
       </c>
       <c r="N26" t="n">
-        <v>3130.95002174635</v>
+        <v>3051.398683947134</v>
       </c>
       <c r="O26" t="n">
-        <v>4010.914672075804</v>
+        <v>3554.371154826471</v>
       </c>
       <c r="P26" t="n">
-        <v>4405.689038432983</v>
+        <v>4267.726242273417</v>
       </c>
       <c r="Q26" t="n">
         <v>4653.975400188665</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.56103444839441</v>
+        <v>432.2000540015823</v>
       </c>
       <c r="C28" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D28" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G28" t="n">
         <v>95.56103444839441</v>
@@ -6414,22 +6414,22 @@
         <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>1559.196154437386</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1270.093287563029</v>
+        <v>1352.04781891033</v>
       </c>
       <c r="V28" t="n">
-        <v>1015.408799357142</v>
+        <v>1352.04781891033</v>
       </c>
       <c r="W28" t="n">
-        <v>725.9916293201816</v>
+        <v>1062.630648873369</v>
       </c>
       <c r="X28" t="n">
-        <v>498.0020784221642</v>
+        <v>834.6410979753522</v>
       </c>
       <c r="Y28" t="n">
-        <v>277.2094992786341</v>
+        <v>613.848518831822</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972663</v>
+        <v>1002.806306216376</v>
       </c>
       <c r="L29" t="n">
-        <v>1237.706702364128</v>
+        <v>1453.840519464784</v>
       </c>
       <c r="M29" t="n">
-        <v>2216.257005193956</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N29" t="n">
-        <v>3196.009277420603</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
         <v>189.2383039390118</v>
@@ -6575,7 +6575,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6584,10 +6584,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>707.5107908505465</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C31" t="n">
-        <v>707.5107908505465</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D31" t="n">
-        <v>557.3941514382108</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
@@ -6648,25 +6648,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T31" t="n">
-        <v>1956.343466104704</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U31" t="n">
-        <v>1667.240599230347</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V31" t="n">
-        <v>1627.358555759294</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W31" t="n">
-        <v>1337.941385722334</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X31" t="n">
-        <v>1109.951834824316</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y31" t="n">
-        <v>889.1592556807863</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="32">
@@ -6691,13 +6691,13 @@
         <v>850.2139837551613</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001578</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J32" t="n">
         <v>284.4401654074198</v>
@@ -6709,22 +6709,22 @@
         <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>2461.328657580449</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N32" t="n">
-        <v>3441.080929807095</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750059</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S32" t="n">
         <v>4667.761053946815</v>
@@ -6755,37 +6755,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C33" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193586</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320239</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6794,37 +6794,37 @@
         <v>1715.000032008795</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
       </c>
       <c r="W33" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>95.56103444839442</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="C34" t="n">
-        <v>95.56103444839442</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="D34" t="n">
-        <v>95.56103444839442</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E34" t="n">
-        <v>95.56103444839442</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J34" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
         <v>661.2306482927024</v>
@@ -6873,19 +6873,19 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P34" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1764.657581931529</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T34" t="n">
         <v>1542.890966501056</v>
@@ -6894,16 +6894,16 @@
         <v>1253.788099626699</v>
       </c>
       <c r="V34" t="n">
-        <v>1015.408799357142</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W34" t="n">
-        <v>725.9916293201816</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X34" t="n">
-        <v>498.0020784221642</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y34" t="n">
-        <v>277.2094992786341</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
         <v>1646.988141143014</v>
@@ -6934,55 +6934,55 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L35" t="n">
-        <v>1586.925993846823</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M35" t="n">
-        <v>2120.457898518747</v>
+        <v>2337.214217867998</v>
       </c>
       <c r="N35" t="n">
-        <v>2667.23671557753</v>
+        <v>3316.966490094645</v>
       </c>
       <c r="O35" t="n">
-        <v>3547.201365906984</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P35" t="n">
-        <v>4260.55645335393</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="36">
@@ -6992,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K36" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q36" t="n">
         <v>2594.102460549552</v>
@@ -7049,7 +7049,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7058,10 +7058,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="37">
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>560.358900722199</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C37" t="n">
-        <v>391.4227177942921</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D37" t="n">
-        <v>391.4227177942921</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E37" t="n">
-        <v>391.4227177942921</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F37" t="n">
-        <v>391.4227177942921</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G37" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L37" t="n">
         <v>661.2306482927024</v>
@@ -7110,37 +7110,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P37" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R37" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S37" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T37" t="n">
-        <v>1734.57685067423</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U37" t="n">
-        <v>1445.473983799873</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V37" t="n">
-        <v>1190.789495593986</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W37" t="n">
-        <v>1190.789495593986</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X37" t="n">
-        <v>962.7999446959689</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y37" t="n">
-        <v>742.0073655524387</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>419.3276555045771</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K38" t="n">
-        <v>753.1470291944236</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L38" t="n">
-        <v>1617.665844847778</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M38" t="n">
-        <v>2151.197749519703</v>
+        <v>2504.619866888351</v>
       </c>
       <c r="N38" t="n">
-        <v>3130.95002174635</v>
+        <v>3051.398683947134</v>
       </c>
       <c r="O38" t="n">
-        <v>4010.914672075804</v>
+        <v>3931.363334276588</v>
       </c>
       <c r="P38" t="n">
-        <v>4405.689038432983</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="39">
@@ -7229,52 +7229,52 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089899</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320249</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M39" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q39" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
         <v>2593.958107142068</v>
@@ -7283,16 +7283,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T39" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V39" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W39" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
         <v>1346.568408282342</v>
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>713.5009252592428</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C40" t="n">
-        <v>544.5647423313359</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D40" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E40" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F40" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G40" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L40" t="n">
         <v>661.2306482927024</v>
@@ -7347,37 +7347,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P40" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q40" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R40" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S40" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T40" t="n">
-        <v>1956.343466104704</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U40" t="n">
-        <v>1667.240599230347</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V40" t="n">
-        <v>1412.556111024461</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W40" t="n">
-        <v>1123.1389409875</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="X40" t="n">
-        <v>895.1493900894825</v>
+        <v>391.8664332433621</v>
       </c>
       <c r="Y40" t="n">
-        <v>895.1493900894825</v>
+        <v>171.0738540998319</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I41" t="n">
         <v>95.56103444839442</v>
@@ -7426,37 +7426,37 @@
         <v>3441.080929807096</v>
       </c>
       <c r="O41" t="n">
-        <v>4075.973927750058</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R41" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="42">
@@ -7481,22 +7481,22 @@
         <v>341.4333205763703</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193585</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7508,7 +7508,7 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q42" t="n">
         <v>2594.102460549552</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>95.56103444839442</v>
+        <v>675.7429179653792</v>
       </c>
       <c r="C43" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="D43" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="E43" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F43" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I43" t="n">
         <v>95.56103444839442</v>
@@ -7593,28 +7593,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S43" t="n">
-        <v>1764.65758193153</v>
+        <v>1782.624616473527</v>
       </c>
       <c r="T43" t="n">
-        <v>1542.890966501056</v>
+        <v>1560.858001043053</v>
       </c>
       <c r="U43" t="n">
-        <v>1253.788099626699</v>
+        <v>1560.858001043053</v>
       </c>
       <c r="V43" t="n">
-        <v>999.1036114208126</v>
+        <v>1306.173512837166</v>
       </c>
       <c r="W43" t="n">
-        <v>709.6864413838521</v>
+        <v>1306.173512837166</v>
       </c>
       <c r="X43" t="n">
-        <v>481.6968904858347</v>
+        <v>1078.183961939149</v>
       </c>
       <c r="Y43" t="n">
-        <v>277.2094992786341</v>
+        <v>857.3913827956189</v>
       </c>
     </row>
     <row r="44">
@@ -7627,67 +7627,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>785.6651881176194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L44" t="n">
-        <v>1453.840519464784</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M44" t="n">
-        <v>2432.390822294613</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N44" t="n">
-        <v>2979.169639353395</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V44" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X44" t="n">
         <v>3150.95552873011</v>
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C45" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390115</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O45" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V45" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W45" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="46">
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>95.56103444839442</v>
+        <v>368.3587133864212</v>
       </c>
       <c r="C46" t="n">
-        <v>95.56103444839442</v>
+        <v>368.3587133864212</v>
       </c>
       <c r="D46" t="n">
-        <v>95.56103444839442</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E46" t="n">
         <v>95.56103444839442</v>
@@ -7839,19 +7839,19 @@
         <v>1542.890966501056</v>
       </c>
       <c r="U46" t="n">
-        <v>1270.093287563029</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="V46" t="n">
-        <v>1015.408799357142</v>
+        <v>1288.206478295169</v>
       </c>
       <c r="W46" t="n">
-        <v>725.9916293201816</v>
+        <v>998.7893082582084</v>
       </c>
       <c r="X46" t="n">
-        <v>498.0020784221642</v>
+        <v>770.7997573601911</v>
       </c>
       <c r="Y46" t="n">
-        <v>277.2094992786341</v>
+        <v>550.0071782166609</v>
       </c>
     </row>
   </sheetData>
@@ -8063,7 +8063,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451766</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8692,25 +8692,25 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>102.8529310510271</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8935,13 +8935,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>201.9664098701126</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -9166,22 +9166,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>297.8289162490806</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9874,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>104.3976710547467</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>139.3563597571374</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>219.3344627260164</v>
       </c>
       <c r="L29" t="n">
-        <v>170.1140909277297</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10363,7 +10363,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>133.253057640027</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10585,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>29.61882225792044</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>258.6211785616945</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10822,10 +10822,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>136.2499899971285</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10834,19 +10834,19 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>146.071306538859</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11074,7 +11074,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>133.2530576400255</v>
+        <v>67.53663776704263</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>219.3344627260163</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23430,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>130.8301120625275</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,10 +23466,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>58.97141544966343</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23655,10 +23655,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23712,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>237.2436177761811</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>113.7908987761683</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23892,10 +23892,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,13 +23940,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>43.60786094376954</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>97.43209452715917</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>105.0742887270134</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24375,16 +24375,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>46.34416740889742</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,10 +24426,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>69.9973234593968</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24654,13 +24654,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>105.0742887270136</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>186.2092747608413</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24843,19 +24843,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -24888,16 +24888,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="V31" t="n">
-        <v>212.6544202874855</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>161.5631840798974</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25086,7 +25086,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
@@ -25095,7 +25095,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>16.14213605696679</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>114.2301770707484</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>16.14213605696699</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>105.0742887270141</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>14.88262538744931</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>106.7195168666243</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26028,10 +26028,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>24.97973351613506</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>16.14213605696636</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>897877.740896677</v>
+        <v>897877.7408966769</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>897877.7408966768</v>
+        <v>897877.7408966769</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>897877.7408966769</v>
+        <v>897877.740896677</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>897877.740896677</v>
+        <v>897877.7408966769</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>897877.740896677</v>
+        <v>897877.7408966769</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>897877.7408966769</v>
+        <v>897877.740896677</v>
       </c>
     </row>
     <row r="16">
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117841</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117846</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117845</v>
+        <v>533677.1504117848</v>
       </c>
       <c r="E2" t="n">
-        <v>516206.322953078</v>
+        <v>516206.3229530783</v>
       </c>
       <c r="F2" t="n">
-        <v>516206.3229530781</v>
+        <v>516206.3229530782</v>
       </c>
       <c r="G2" t="n">
-        <v>516206.3229530781</v>
+        <v>516206.3229530782</v>
       </c>
       <c r="H2" t="n">
-        <v>516206.3229530781</v>
+        <v>516206.3229530783</v>
       </c>
       <c r="I2" t="n">
         <v>516206.3229530783</v>
@@ -26343,19 +26343,19 @@
         <v>516206.3229530782</v>
       </c>
       <c r="L2" t="n">
-        <v>516206.3229530781</v>
+        <v>516206.3229530783</v>
       </c>
       <c r="M2" t="n">
+        <v>516206.3229530783</v>
+      </c>
+      <c r="N2" t="n">
         <v>516206.322953078</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>516206.3229530783</v>
       </c>
-      <c r="O2" t="n">
-        <v>516206.3229530781</v>
-      </c>
       <c r="P2" t="n">
-        <v>516206.3229530781</v>
+        <v>516206.3229530782</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.413993407</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389449</v>
+        <v>129642.3148389448</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>201064.5059277316</v>
       </c>
       <c r="E4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499381</v>
       </c>
       <c r="F4" t="n">
         <v>25090.72367499382</v>
@@ -26441,25 +26441,25 @@
         <v>25090.72367499381</v>
       </c>
       <c r="J4" t="n">
-        <v>25090.7236749938</v>
+        <v>25090.72367499381</v>
       </c>
       <c r="K4" t="n">
+        <v>25090.72367499382</v>
+      </c>
+      <c r="L4" t="n">
         <v>25090.72367499381</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>25090.72367499384</v>
       </c>
-      <c r="M4" t="n">
-        <v>25090.72367499381</v>
-      </c>
       <c r="N4" t="n">
-        <v>25090.7236749938</v>
+        <v>25090.72367499383</v>
       </c>
       <c r="O4" t="n">
         <v>25090.72367499382</v>
       </c>
       <c r="P4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499381</v>
       </c>
     </row>
     <row r="5">
@@ -26475,10 +26475,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340944</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
         <v>96383.51825371366</v>
@@ -26490,13 +26490,13 @@
         <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
         <v>96383.51825371364</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-340214.3127939013</v>
+        <v>-340214.3127939012</v>
       </c>
       <c r="C6" t="n">
-        <v>249753.5664206433</v>
+        <v>249753.5664206437</v>
       </c>
       <c r="D6" t="n">
-        <v>249753.5664206435</v>
+        <v>249753.5664206437</v>
       </c>
       <c r="E6" t="n">
-        <v>-333317.2878712944</v>
+        <v>-332712.5284592616</v>
       </c>
       <c r="F6" t="n">
-        <v>394060.1261221127</v>
+        <v>394664.8855341449</v>
       </c>
       <c r="G6" t="n">
-        <v>394060.1261221127</v>
+        <v>394664.8855341449</v>
       </c>
       <c r="H6" t="n">
-        <v>394060.1261221126</v>
+        <v>394664.8855341449</v>
       </c>
       <c r="I6" t="n">
-        <v>394060.1261221129</v>
+        <v>394664.8855341451</v>
       </c>
       <c r="J6" t="n">
-        <v>217636.9069295198</v>
+        <v>218241.666341552</v>
       </c>
       <c r="K6" t="n">
-        <v>394060.1261221128</v>
+        <v>394664.8855341449</v>
       </c>
       <c r="L6" t="n">
-        <v>394060.1261221129</v>
+        <v>394664.8855341451</v>
       </c>
       <c r="M6" t="n">
-        <v>264417.8112831677</v>
+        <v>265022.5706952002</v>
       </c>
       <c r="N6" t="n">
-        <v>394060.1261221129</v>
+        <v>394664.8855341447</v>
       </c>
       <c r="O6" t="n">
-        <v>394060.1261221127</v>
+        <v>394664.8855341449</v>
       </c>
       <c r="P6" t="n">
-        <v>394060.1261221127</v>
+        <v>394664.8855341449</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170864</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762118</v>
+        <v>712.0330363762117</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26992,13 +26992,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503749</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503749</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27393,7 +27393,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>50.63597288476825</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27435,7 +27435,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>301.8601403930574</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>165.3051017946059</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27551,7 +27551,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27627,13 +27627,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>42.48905394114852</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>90.29705704176487</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27678,10 +27678,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>120.1051426060688</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27788,16 +27788,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>39.33357018799848</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>90.29705704176487</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060691</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28025,16 +28025,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>96.50703242634988</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853703</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491434</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31521,40 +31521,40 @@
         <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554463</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630668</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405366</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338302</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119864</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633791</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.6043567772738</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473549</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141104</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188909</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890687</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396472</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736699</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479576</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639064</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034978</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372663</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619149</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078606</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644438</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492003</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813575</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302234</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175838</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383795</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678004</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701162</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197222</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315608</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31840,7 +31840,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
@@ -32077,7 +32077,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
@@ -32095,7 +32095,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
@@ -32314,7 +32314,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
@@ -32809,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33496,40 +33496,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33569,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33584,16 +33584,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33602,16 +33602,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33733,40 +33733,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33821,16 +33821,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33839,16 +33839,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33970,40 +33970,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34058,16 +34058,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34076,16 +34076,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34783,7 +34783,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35029,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35175,25 +35175,25 @@
         <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343418</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.563508753045</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116796</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898688</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,19 +35251,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770686</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713856</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355132</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245897</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.811094813734</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713948</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873144</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,25 +35412,25 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>655.1547664639386</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P11" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
         <v>59.61319854222478</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
@@ -35655,13 +35655,13 @@
         <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>740.8875257003393</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P14" t="n">
         <v>398.7619862193719</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
@@ -35743,7 +35743,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35886,22 +35886,22 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>635.0202028044811</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
         <v>250.7943048037195</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
@@ -36457,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,28 +36594,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>441.5889576101472</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>390.1506645608569</v>
       </c>
       <c r="R26" t="n">
         <v>125.3296184152072</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>556.5257492814169</v>
       </c>
       <c r="L29" t="n">
-        <v>625.7042053200619</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>641.306058528246</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L34" t="n">
         <v>319.7573721701981</v>
@@ -37241,13 +37241,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P34" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L35" t="n">
-        <v>485.2089366502526</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509645</v>
+        <v>766.6741794499135</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37478,13 +37478,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>327.0369909658411</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>544.8332927582306</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37715,13 +37715,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37794,7 +37794,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>641.3060585282446</v>
+        <v>575.5896386552618</v>
       </c>
       <c r="P41" t="n">
         <v>398.7619862193719</v>
@@ -37803,7 +37803,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>674.9245771183485</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
